--- a/primerContactoExcel.xlsx
+++ b/primerContactoExcel.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panwe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFBB7FD-109B-4B74-941F-E010212E2D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081A4333-2F03-4A4D-BBD3-6E22BBEF8F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E631539-E970-4EC3-97A5-99D9C0B961CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>VENTAS</t>
   </si>
@@ -54,6 +55,12 @@
   <si>
     <t>TIENDA 3</t>
   </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>PORCENTAJE COMISION</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +100,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -245,11 +272,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,6 +328,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,16 +651,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1B9745-6CF2-40FC-9055-2D5AF414E139}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -610,14 +682,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="C4" s="6">
         <v>7000</v>
       </c>
       <c r="D4" s="7">
         <f>+B4-C4</f>
-        <v>8000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -625,14 +697,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="C5" s="6">
         <v>12000</v>
       </c>
       <c r="D5" s="7">
         <f>+B5-C5</f>
-        <v>13000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -648,10 +720,178 @@
       <c r="D6" s="9">
         <f>+B6-C6</f>
         <v>21000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <f>SUM(B4:B7)</f>
+        <v>131000</v>
+      </c>
+      <c r="C8" s="11">
+        <f>SUM(C4:C7)</f>
+        <v>39000</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(D4:D7)</f>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16">
+        <f>+$B$11*B4</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" ref="B14:B15" si="0">+$B$11*B5</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57381F3-AB87-4FA7-9ABE-DDE6A47485C6}">
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>35000</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>55000</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>41000</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>131000</v>
+      </c>
+      <c r="C8">
+        <v>39000</v>
+      </c>
+      <c r="D8">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>